--- a/biology/Zoologie/Cretaceozomus/Cretaceozomus.xlsx
+++ b/biology/Zoologie/Cretaceozomus/Cretaceozomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cretaceozomus est un genre fossile de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie[1]. Elles datent du Crétacé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon De Francesco Magnussen, Müller, Hammel, Kotthoff et Harms[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon De Francesco Magnussen, Müller, Hammel, Kotthoff et Harms :
 Cretaceozomus angustocaudatus De Francesco Magnussen, 2022
 Cretaceozomus robustus De Francesco Magnussen, 2022</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par De Francesco Magnussen et Müller en 2022 dans les Hubbardiidae.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De Francesco Magnussen, Müller, Hammel, Kotthoff &amp; Harms, 2022 : « Diversity of schizomids (Arachnida: Schizomida) revealed by new fossil genera and species from mid-Cretaceous Burmese amber with implications for a Gondwanan origin of the Burma Terrane. » Zoological Journal of the Linnean Society, p. 1–53.</t>
         </is>
